--- a/templates/template-lieferschein_deu_v2.12.xlsx
+++ b/templates/template-lieferschein_deu_v2.12.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Documents\eclipse.workspace\facturaX\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A6E5B6B-FFC6-4802-B8E0-7B626E13080F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4D84386-08A8-48AB-BAE9-128FBC13F160}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{BDB31136-F42A-43E6-B94C-7A1AD5286F65}"/>
   </bookViews>
   <sheets>
-    <sheet name="Angebot" sheetId="1" r:id="rId1"/>
+    <sheet name="Lieferschein" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -53,9 +53,6 @@
     <t>{Sender}</t>
   </si>
   <si>
-    <t>{Recipient}</t>
-  </si>
-  <si>
     <t>LIEFERSCHEIN</t>
   </si>
   <si>
@@ -65,19 +62,22 @@
     <t xml:space="preserve">LIEFERSCHEINNUMMER:   </t>
   </si>
   <si>
-    <t xml:space="preserve">BESTELLNUMMER:   </t>
-  </si>
-  <si>
-    <t>MENGE BESTELLT</t>
-  </si>
-  <si>
-    <t>MENGE GELIEFERT</t>
-  </si>
-  <si>
-    <t>{A13}</t>
-  </si>
-  <si>
-    <t>{A30}</t>
+    <t>{lsAdresse}</t>
+  </si>
+  <si>
+    <t>{Grund}</t>
+  </si>
+  <si>
+    <t>{Hinweis}</t>
+  </si>
+  <si>
+    <t>{lsDatum}</t>
+  </si>
+  <si>
+    <t>{lsNummer}</t>
+  </si>
+  <si>
+    <t>MENGE</t>
   </si>
 </sst>
 </file>
@@ -373,7 +373,7 @@
       <alignment horizontal="left"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -434,77 +434,74 @@
     <xf numFmtId="165" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="168" fontId="15" fillId="0" borderId="0" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="169" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="168" fontId="15" fillId="0" borderId="0" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -855,8 +852,8 @@
   </sheetPr>
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A6" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="4.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -866,31 +863,31 @@
     <col min="3" max="3" width="10.625" customWidth="1"/>
     <col min="4" max="4" width="25.625" customWidth="1"/>
     <col min="5" max="5" width="1.625" customWidth="1"/>
-    <col min="6" max="6" width="25.625" customWidth="1"/>
-    <col min="7" max="7" width="1.625" customWidth="1"/>
+    <col min="6" max="6" width="19" customWidth="1"/>
+    <col min="7" max="7" width="5.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
     </row>
     <row r="2" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="9"/>
       <c r="B2" s="17"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
     </row>
     <row r="3" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="9"/>
@@ -909,65 +906,67 @@
     </row>
     <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9"/>
-      <c r="B5" s="28" t="s">
-        <v>5</v>
+      <c r="B5" s="38" t="s">
+        <v>8</v>
       </c>
       <c r="C5" s="15"/>
-      <c r="D5" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="30"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
+      <c r="D5" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="40"/>
+      <c r="F5" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="41"/>
     </row>
     <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9"/>
-      <c r="B6" s="29"/>
+      <c r="B6" s="39"/>
       <c r="C6" s="14"/>
-      <c r="D6" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="30"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
+      <c r="D6" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="40"/>
+      <c r="F6" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="35"/>
     </row>
     <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9"/>
-      <c r="B7" s="29"/>
+      <c r="B7" s="39"/>
       <c r="C7" s="14"/>
-      <c r="D7" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="30"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
       <c r="F7" s="26"/>
       <c r="G7" s="26"/>
     </row>
     <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9"/>
-      <c r="B8" s="29"/>
+      <c r="B8" s="39"/>
       <c r="C8" s="12"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
     </row>
     <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9"/>
-      <c r="B9" s="29"/>
+      <c r="B9" s="39"/>
       <c r="C9" s="12"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
     </row>
     <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9"/>
       <c r="B10" s="13"/>
       <c r="C10" s="12"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="36"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
     </row>
     <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9"/>
@@ -978,225 +977,201 @@
       <c r="F11" s="10"/>
     </row>
     <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="27"/>
-      <c r="B12" s="27"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
+      <c r="A12" s="31"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
     </row>
     <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="27"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
+      <c r="A13" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
     </row>
     <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="27"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
+      <c r="A14" s="24"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
     </row>
     <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="27"/>
-      <c r="B15" s="27"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
+      <c r="A15" s="31"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
     </row>
     <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="41" t="s">
+      <c r="B16" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C16" s="42"/>
-      <c r="D16" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="38"/>
-      <c r="F16" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" s="40"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="30"/>
     </row>
     <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="44"/>
-      <c r="C17" s="45"/>
-      <c r="D17" s="22"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
       <c r="E17" s="8"/>
-      <c r="F17" s="23"/>
+      <c r="F17" s="44"/>
       <c r="G17" s="7"/>
     </row>
     <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="19"/>
-      <c r="B18" s="44"/>
-      <c r="C18" s="45"/>
-      <c r="D18" s="22"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
       <c r="E18" s="8"/>
-      <c r="F18" s="23"/>
+      <c r="F18" s="44"/>
       <c r="G18" s="7"/>
     </row>
     <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="19"/>
-      <c r="B19" s="44"/>
-      <c r="C19" s="45"/>
-      <c r="D19" s="22"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
       <c r="E19" s="8"/>
-      <c r="F19" s="23"/>
+      <c r="F19" s="44"/>
       <c r="G19" s="7"/>
     </row>
     <row r="20" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="19"/>
-      <c r="B20" s="44"/>
-      <c r="C20" s="45"/>
-      <c r="D20" s="22"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
       <c r="E20" s="8"/>
-      <c r="F20" s="23"/>
+      <c r="F20" s="44"/>
       <c r="G20" s="7"/>
     </row>
     <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="19"/>
-      <c r="B21" s="44"/>
-      <c r="C21" s="45"/>
-      <c r="D21" s="22"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
       <c r="E21" s="8"/>
-      <c r="F21" s="23"/>
+      <c r="F21" s="44"/>
       <c r="G21" s="7"/>
     </row>
     <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="19"/>
-      <c r="B22" s="44"/>
-      <c r="C22" s="45"/>
-      <c r="D22" s="22"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
       <c r="E22" s="8"/>
-      <c r="F22" s="23"/>
+      <c r="F22" s="44"/>
       <c r="G22" s="7"/>
     </row>
     <row r="23" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="19"/>
-      <c r="B23" s="44"/>
-      <c r="C23" s="45"/>
-      <c r="D23" s="22"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
       <c r="E23" s="8"/>
-      <c r="F23" s="23"/>
+      <c r="F23" s="44"/>
       <c r="G23" s="7"/>
     </row>
     <row r="24" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="19"/>
-      <c r="B24" s="44"/>
-      <c r="C24" s="45"/>
-      <c r="D24" s="22"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
       <c r="E24" s="8"/>
-      <c r="F24" s="23"/>
+      <c r="F24" s="44"/>
       <c r="G24" s="7"/>
     </row>
     <row r="25" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="19"/>
-      <c r="B25" s="44"/>
-      <c r="C25" s="45"/>
-      <c r="D25" s="22"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
       <c r="E25" s="8"/>
-      <c r="F25" s="23"/>
+      <c r="F25" s="44"/>
       <c r="G25" s="7"/>
     </row>
     <row r="26" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="19"/>
-      <c r="B26" s="44"/>
-      <c r="C26" s="45"/>
-      <c r="D26" s="22"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
       <c r="E26" s="8"/>
-      <c r="F26" s="23"/>
+      <c r="F26" s="44"/>
       <c r="G26" s="7"/>
     </row>
     <row r="27" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="19"/>
-      <c r="B27" s="44"/>
-      <c r="C27" s="45"/>
-      <c r="D27" s="22"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
       <c r="E27" s="8"/>
-      <c r="F27" s="23"/>
+      <c r="F27" s="44"/>
       <c r="G27" s="7"/>
     </row>
     <row r="28" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="19"/>
-      <c r="B28" s="44"/>
-      <c r="C28" s="45"/>
-      <c r="D28" s="22"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
       <c r="E28" s="8"/>
-      <c r="F28" s="23"/>
+      <c r="F28" s="44"/>
       <c r="G28" s="7"/>
     </row>
     <row r="29" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C29" s="35"/>
-      <c r="D29" s="35"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
       <c r="E29" s="20"/>
       <c r="F29" s="21"/>
       <c r="G29" s="6"/>
     </row>
     <row r="30" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="43" t="s">
-        <v>13</v>
-      </c>
-      <c r="B30" s="43"/>
-      <c r="C30" s="43"/>
-      <c r="D30" s="43"/>
-      <c r="E30" s="43"/>
-      <c r="F30" s="43"/>
+      <c r="A30" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" s="34"/>
+      <c r="C30" s="34"/>
+      <c r="D30" s="34"/>
+      <c r="E30" s="34"/>
+      <c r="F30" s="34"/>
     </row>
     <row r="31" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="35"/>
-      <c r="C31" s="35"/>
-      <c r="D31" s="35"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="25"/>
       <c r="E31" s="5"/>
       <c r="F31" s="4"/>
     </row>
     <row r="32" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="35"/>
-      <c r="C32" s="35"/>
-      <c r="D32" s="35"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="25"/>
       <c r="E32" s="3"/>
       <c r="F32" s="2"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <mergeCells count="37">
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="F8:G8"/>
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="F7:G8"/>
-    <mergeCell ref="A14:F14"/>
     <mergeCell ref="B5:B9"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="F5:G5"/>
@@ -1207,20 +1182,42 @@
     <mergeCell ref="C1:G2"/>
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="B16:C16"/>
     <mergeCell ref="D10:E10"/>
-    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="A13:F14"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
   </mergeCells>
-  <dataValidations disablePrompts="1" count="5">
-    <dataValidation allowBlank="1" sqref="C1 C3:E11 B2:B11 B15:F15 A1 F9:F11 F3:F7 A12:A14" xr:uid="{21824488-88C6-453E-8F38-8F58E590857F}"/>
+  <dataValidations count="5">
+    <dataValidation allowBlank="1" sqref="C1 C3:E11 B2:B11 B15:F15 A1 F9:F11 F3:F7 A12:A13" xr:uid="{21824488-88C6-453E-8F38-8F58E590857F}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Die fällige Summe wird in der Zelle rechts automatisch berechnet." sqref="E32" xr:uid="{FDC6BADA-EDCE-4D75-888F-9B0F60BA932B}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Die fällige Summe wird in dieser Zelle automatisch berechnet." sqref="E32" xr:uid="{630554CC-652C-4DD7-B4EF-D274C17FF7AD}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Der Mehrwertsteuerbetrag wird in dieser Zelle automatisch berechnet." sqref="E31" xr:uid="{8728532D-4853-4746-B075-34B8EB6E04D6}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Geben Sie in dieser Spalte unter dieser Überschrift eine Beschreibung ein." sqref="B16 D16" xr:uid="{4B8E4777-1068-409C-B9B3-0BBBA19CC673}"/>
   </dataValidations>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="61" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="62" orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddFooter>&amp;L&amp;9&amp;K808080{footer_left}&amp;C&amp;9&amp;K808080{footer_middle}&amp;R&amp;9&amp;K808080v 2.12</oddFooter>
+    <oddFooter>&amp;L&amp;9&amp;K808080{footer_left}&amp;C&amp;9&amp;K808080{footer_middle}&amp;R&amp;9&amp;K808080{footer_right}</oddFooter>
   </headerFooter>
 </worksheet>
 </file>